--- a/results/evaluation.xlsx
+++ b/results/evaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Projects/CS5011-A1-Search-Flight-Route-Planner/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49344D3A-74C4-7440-8281-BC29D31F9FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2064EE9-7835-B747-8E6A-AB4D3EC71C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{EB04BADF-6A54-E943-A50B-1BB5DE083FC1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>DFS</t>
   </si>
@@ -147,11 +147,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,27 +470,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D934C46-A1A6-944C-B5AC-80637F8B51BE}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -501,146 +506,156 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
         <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
       </c>
       <c r="N3" t="s">
         <v>1</v>
       </c>
       <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/evaluation.xlsx
+++ b/results/evaluation.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Projects/CS5011-A1-Search-Flight-Route-Planner/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2064EE9-7835-B747-8E6A-AB4D3EC71C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD3A6FE-D028-DD48-AFCD-11B080BFCDBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{EB04BADF-6A54-E943-A50B-1BB5DE083FC1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" xr2:uid="{EB04BADF-6A54-E943-A50B-1BB5DE083FC1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="21">
   <si>
     <t>DFS</t>
   </si>
@@ -39,21 +39,9 @@
     <t>Path Length</t>
   </si>
   <si>
-    <t>States Explored</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>BFS</t>
   </si>
   <si>
-    <t>Uninformed Search</t>
-  </si>
-  <si>
-    <t>Informed Search</t>
-  </si>
-  <si>
     <t>BestF</t>
   </si>
   <si>
@@ -93,14 +81,26 @@
     <t>x. N=10 S=(7,270) G=(7,90)</t>
   </si>
   <si>
-    <t>Problem</t>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>Nodes/States Expanded</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Node Depth</t>
+  </si>
+  <si>
+    <t>Nodes Created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,15 +110,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,15 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,193 +458,1178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D934C46-A1A6-944C-B5AC-80637F8B51BE}">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E6C371-8A6E-FB4D-9FBD-FC4056FC3264}">
+  <dimension ref="A3:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B18">
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="C18">
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="D18">
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="E18">
+        <v>5.1420000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>11.638999999999999</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="C20">
+        <v>16.352</v>
+      </c>
+      <c r="D20">
+        <v>8.4979999999999993</v>
+      </c>
+      <c r="E20">
+        <v>5.7850000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="C22">
+        <v>35.415999999999997</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>9.2829999999999995</v>
+      </c>
+      <c r="C23">
+        <v>39.914000000000001</v>
+      </c>
+      <c r="D23">
+        <v>9.2829999999999995</v>
+      </c>
+      <c r="E23">
+        <v>9.2829999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>35.274000000000001</v>
+      </c>
+      <c r="C25">
+        <v>135.80500000000001</v>
+      </c>
+      <c r="D25">
+        <v>24.707999999999998</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>13.282999999999999</v>
+      </c>
+      <c r="C26">
+        <v>120.09699999999999</v>
+      </c>
+      <c r="D26">
+        <v>13.282999999999999</v>
+      </c>
+      <c r="E26">
+        <v>12.571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>21.991</v>
+      </c>
+      <c r="C27">
+        <v>21.991</v>
+      </c>
+      <c r="D27">
+        <v>19.853999999999999</v>
+      </c>
+      <c r="E27">
+        <v>15.571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
         <v>9</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>72</v>
+      </c>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="C46">
+        <v>2.64</v>
+      </c>
+      <c r="D46">
+        <v>7.1660000000000004</v>
+      </c>
+      <c r="E46">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="C47">
+        <v>6.9770000000000003</v>
+      </c>
+      <c r="D47">
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="E47">
+        <v>6.8579999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B48">
+        <v>7.8410000000000002</v>
+      </c>
+      <c r="C48">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="D48">
+        <v>14.596</v>
+      </c>
+      <c r="E48">
+        <v>11.577999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>8.8810000000000002</v>
+      </c>
+      <c r="C50">
+        <v>6.08</v>
+      </c>
+      <c r="D50">
+        <v>7.2569999999999997</v>
+      </c>
+      <c r="E50">
+        <v>7.4889999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>11.234</v>
+      </c>
+      <c r="C51">
+        <v>10.708</v>
+      </c>
+      <c r="D51">
+        <v>6.7439999999999998</v>
+      </c>
+      <c r="E51">
+        <v>9.2829999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>11.657999999999999</v>
+      </c>
+      <c r="C53">
+        <v>8.1609999999999996</v>
+      </c>
+      <c r="D53">
+        <v>14.814</v>
+      </c>
+      <c r="E53">
+        <v>15.223000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>13.42</v>
+      </c>
+      <c r="C54">
+        <v>8.8520000000000003</v>
+      </c>
+      <c r="D54">
+        <v>12.803000000000001</v>
+      </c>
+      <c r="E54">
+        <v>14.164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>21.991</v>
+      </c>
+      <c r="C55">
+        <v>2.948</v>
+      </c>
+      <c r="D55">
+        <v>19.295999999999999</v>
+      </c>
+      <c r="E55">
+        <v>17.119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>35</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>35</v>
+      </c>
+      <c r="D69">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>11</v>
+      </c>
+      <c r="E74">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>39</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>8</v>
       </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B76">
+        <v>37</v>
+      </c>
+      <c r="C76">
+        <v>39</v>
+      </c>
+      <c r="D76">
+        <v>37</v>
+      </c>
+      <c r="E76">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B78">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>45</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>55</v>
+      </c>
+      <c r="C79">
+        <v>63</v>
+      </c>
+      <c r="D79">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B81">
+        <v>76</v>
+      </c>
+      <c r="C81">
+        <v>65</v>
+      </c>
+      <c r="D81">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82">
+        <v>79</v>
+      </c>
+      <c r="D82">
+        <v>46</v>
+      </c>
+      <c r="E82">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
+      <c r="B83">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>56</v>
+      </c>
+      <c r="E83">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="J2:M2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B72:E72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/evaluation.xlsx
+++ b/results/evaluation.xlsx
@@ -8,13 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Projects/CS5011-A1-Search-Flight-Route-Planner/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD3A6FE-D028-DD48-AFCD-11B080BFCDBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9110FF-4A7C-FC44-A3BD-25CC7BA8D96D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" xr2:uid="{EB04BADF-6A54-E943-A50B-1BB5DE083FC1}"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="33600" windowHeight="19280" xr2:uid="{EB04BADF-6A54-E943-A50B-1BB5DE083FC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$72:$A$79</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$71</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$72:$B$79</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$71</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$72:$C$79</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$71</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$72:$D$79</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$71</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$72:$E$79</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$71</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$72:$B$79</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$C$71</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$C$72:$C$79</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$D$71</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$D$72:$D$79</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$E$71</definedName>
+    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$E$72:$E$79</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$A$72:$A$79</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -160,6 +180,7413 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E24F-6947-9D70-3E34E5563AFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E24F-6947-9D70-3E34E5563AFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BestF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E24F-6947-9D70-3E34E5563AFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E24F-6947-9D70-3E34E5563AFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1738729232"/>
+        <c:axId val="1738730864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1738729232"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1738730864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1738730864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Path length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1738729232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.7119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B25-BD48-9B5D-EA277A2B1CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.7119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.638999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.415999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.09699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B25-BD48-9B5D-EA277A2B1CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BestF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.7119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4979999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.853999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B25-BD48-9B5D-EA277A2B1CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$18:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.1420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4B25-BD48-9B5D-EA277A2B1CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1700349696"/>
+        <c:axId val="1737906480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1700349696"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1737906480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1737906480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Path cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700349696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C1B-5F4A-9AA9-172DADE4E7B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C1B-5F4A-9AA9-172DADE4E7B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BestF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C1B-5F4A-9AA9-172DADE4E7B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$32:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C1B-5F4A-9AA9-172DADE4E7B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1719512320"/>
+        <c:axId val="1719513952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1719512320"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1719513952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1719513952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> expanded</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1719512320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$46:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.6840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.657999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D975-EE40-B798-34F89669D761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$46:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D975-EE40-B798-34F89669D761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BestF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$46:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$46:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.1660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.295999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D975-EE40-B798-34F89669D761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$46:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$46:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.223000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D975-EE40-B798-34F89669D761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1740755472"/>
+        <c:axId val="1740757104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1740755472"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740757104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1740757104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740755472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$59:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9441-FF4A-BFA2-C9D9E1AC7D71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$59:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$59:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9441-FF4A-BFA2-C9D9E1AC7D71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BestF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$59:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$59:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9441-FF4A-BFA2-C9D9E1AC7D71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$59:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$59:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9441-FF4A-BFA2-C9D9E1AC7D71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1743785552"/>
+        <c:axId val="1712453200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1743785552"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712453200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1712453200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Node depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743785552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$72:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$72:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C51-5B4B-95B5-1AD38318AC6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$72:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$72:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C51-5B4B-95B5-1AD38318AC6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BestF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$72:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$72:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C51-5B4B-95B5-1AD38318AC6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$72:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>i. N=5 S=(2,0) G=(2,135)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ii. N=5 S=(1,180) G=(4,180)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iii. N=5 S=(1,315) G=(4,45)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>v. N=8 S=(1,135) G=(5,315)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>vi. N=8 S=(4,0) G=(7,90)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>viii. N=10 S=(9,225) G=(2,45)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ix. N=10 S=(2,45) G=(9,225)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>x. N=10 S=(7,270) G=(7,90)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$72:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C51-5B4B-95B5-1AD38318AC6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1738505568"/>
+        <c:axId val="1699939072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1738505568"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1699939072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1699939072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Nodes created</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1738505568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F22784-6A49-D14D-969F-DA4915018EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20C824C-3275-6C49-A22A-9F1C6458A1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A148980-D064-3D45-9312-034F9CC16FC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD81999E-52CF-7A48-A900-1420B53AA932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58233BB5-9861-C74D-AA37-8C77292E9394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788D93D1-EEB7-6145-B437-62C71F5EE279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,10 +7886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E6C371-8A6E-FB4D-9FBD-FC4056FC3264}">
-  <dimension ref="A3:E83"/>
+  <dimension ref="A3:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,120 +7972,120 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
       <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -737,121 +8164,121 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>35.415999999999997</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>9.2829999999999995</v>
       </c>
       <c r="C22">
-        <v>35.415999999999997</v>
+        <v>39.914000000000001</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>9.2829999999999995</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>9.2829999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>35.274000000000001</v>
+      </c>
+      <c r="C23">
+        <v>135.80500000000001</v>
+      </c>
+      <c r="D23">
+        <v>24.707999999999998</v>
+      </c>
+      <c r="E23">
         <v>11</v>
-      </c>
-      <c r="B23">
-        <v>9.2829999999999995</v>
-      </c>
-      <c r="C23">
-        <v>39.914000000000001</v>
-      </c>
-      <c r="D23">
-        <v>9.2829999999999995</v>
-      </c>
-      <c r="E23">
-        <v>9.2829999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>13.282999999999999</v>
+      </c>
+      <c r="C24">
+        <v>120.09699999999999</v>
+      </c>
+      <c r="D24">
+        <v>13.282999999999999</v>
+      </c>
+      <c r="E24">
+        <v>12.571</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>35.274000000000001</v>
+        <v>21.991</v>
       </c>
       <c r="C25">
-        <v>135.80500000000001</v>
+        <v>21.991</v>
       </c>
       <c r="D25">
-        <v>24.707999999999998</v>
+        <v>19.853999999999999</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>15.571</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <v>13.282999999999999</v>
-      </c>
-      <c r="C26">
-        <v>120.09699999999999</v>
-      </c>
-      <c r="D26">
-        <v>13.282999999999999</v>
-      </c>
-      <c r="E26">
-        <v>12.571</v>
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>21.991</v>
-      </c>
-      <c r="C27">
-        <v>21.991</v>
-      </c>
-      <c r="D27">
-        <v>19.853999999999999</v>
-      </c>
-      <c r="E27">
-        <v>15.571</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -929,30 +8356,30 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
         <v>9</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>18</v>
+      <c r="E35">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -963,87 +8390,87 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40">
-        <v>79</v>
-      </c>
-      <c r="C40">
-        <v>45</v>
-      </c>
-      <c r="D40">
-        <v>22</v>
-      </c>
-      <c r="E40">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41">
-        <v>25</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>30</v>
-      </c>
-      <c r="E41">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,182 +8548,216 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>8.8810000000000002</v>
+      </c>
+      <c r="C49">
+        <v>6.08</v>
+      </c>
+      <c r="D49">
+        <v>7.2569999999999997</v>
+      </c>
+      <c r="E49">
+        <v>7.4889999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
-        <v>8.8810000000000002</v>
+        <v>11.234</v>
       </c>
       <c r="C50">
-        <v>6.08</v>
+        <v>10.708</v>
       </c>
       <c r="D50">
-        <v>7.2569999999999997</v>
+        <v>6.7439999999999998</v>
       </c>
       <c r="E50">
-        <v>7.4889999999999999</v>
+        <v>9.2829999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>11.234</v>
+        <v>11.657999999999999</v>
       </c>
       <c r="C51">
-        <v>10.708</v>
+        <v>8.1609999999999996</v>
       </c>
       <c r="D51">
-        <v>6.7439999999999998</v>
+        <v>14.814</v>
       </c>
       <c r="E51">
-        <v>9.2829999999999995</v>
+        <v>15.223000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>13.42</v>
+      </c>
+      <c r="C52">
+        <v>8.8520000000000003</v>
+      </c>
+      <c r="D52">
+        <v>12.803000000000001</v>
+      </c>
+      <c r="E52">
+        <v>14.164</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>11.657999999999999</v>
+        <v>21.991</v>
       </c>
       <c r="C53">
-        <v>8.1609999999999996</v>
+        <v>2.948</v>
       </c>
       <c r="D53">
-        <v>14.814</v>
+        <v>19.295999999999999</v>
       </c>
       <c r="E53">
-        <v>15.223000000000001</v>
+        <v>17.119</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54">
-        <v>13.42</v>
-      </c>
-      <c r="C54">
-        <v>8.8520000000000003</v>
-      </c>
-      <c r="D54">
-        <v>12.803000000000001</v>
-      </c>
-      <c r="E54">
-        <v>14.164</v>
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55">
-        <v>21.991</v>
-      </c>
-      <c r="C55">
-        <v>2.948</v>
-      </c>
-      <c r="D55">
-        <v>19.295999999999999</v>
-      </c>
-      <c r="E55">
-        <v>17.119</v>
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
         <v>3</v>
       </c>
-      <c r="E60" t="s">
-        <v>5</v>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -1308,63 +8769,63 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>35</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>18</v>
@@ -1381,182 +8842,182 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68">
-        <v>35</v>
-      </c>
-      <c r="D68">
-        <v>13</v>
-      </c>
-      <c r="E68">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69">
-        <v>11</v>
-      </c>
-      <c r="C69">
-        <v>35</v>
-      </c>
-      <c r="D69">
-        <v>11</v>
-      </c>
-      <c r="E69">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>16</v>
-      </c>
-      <c r="E70">
-        <v>18</v>
+      <c r="B70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>47</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>39</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B74">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E74">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E75">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B76">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C76">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D76">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E76">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>65</v>
+      </c>
+      <c r="D77">
+        <v>46</v>
+      </c>
+      <c r="E77">
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B78">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C78">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E78">
-        <v>40</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B79">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C79">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E79">
-        <v>41</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>18</v>
@@ -1573,53 +9034,19 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81">
-        <v>76</v>
-      </c>
-      <c r="C81">
-        <v>65</v>
-      </c>
-      <c r="D81">
-        <v>46</v>
-      </c>
-      <c r="E81">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82">
-        <v>79</v>
-      </c>
-      <c r="C82">
-        <v>79</v>
-      </c>
-      <c r="D82">
-        <v>46</v>
-      </c>
-      <c r="E82">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83">
-        <v>36</v>
-      </c>
-      <c r="C83">
-        <v>14</v>
-      </c>
-      <c r="D83">
-        <v>56</v>
-      </c>
-      <c r="E83">
-        <v>162</v>
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1628,9 +9055,10 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B70:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/evaluation.xlsx
+++ b/results/evaluation.xlsx
@@ -8,33 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Projects/CS5011-A1-Search-Flight-Route-Planner/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9110FF-4A7C-FC44-A3BD-25CC7BA8D96D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9868F00-E9E2-F341-B32C-C0A451BC29AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="33600" windowHeight="19280" xr2:uid="{EB04BADF-6A54-E943-A50B-1BB5DE083FC1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" xr2:uid="{EB04BADF-6A54-E943-A50B-1BB5DE083FC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$72:$A$79</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$71</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$72:$B$79</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$71</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$72:$C$79</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$71</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$72:$D$79</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$71</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$72:$E$79</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$71</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$72:$B$79</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$C$71</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$C$72:$C$79</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$D$71</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$D$72:$D$79</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$E$71</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$E$72:$E$79</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$A$72:$A$79</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7888,8 +7868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E6C371-8A6E-FB4D-9FBD-FC4056FC3264}">
   <dimension ref="A3:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9051,12 +9031,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B70:E70"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B70:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
